--- a/Documents/画面設計書_部活動管理システムA04.xlsx
+++ b/Documents/画面設計書_部活動管理システムA04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\170086\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookubo\Documents\jc21ps_2019\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305B770-7ECB-4944-B919-2FC646CA8E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FD8F8C-88B8-4683-B7E1-16EBCA6635AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="2" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="A00.ヘッダー" sheetId="2" r:id="rId1"/>
@@ -3613,38 +3613,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3658,29 +3637,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3688,11 +3688,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3703,23 +3703,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3736,14 +3730,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3757,20 +3757,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3781,8 +3778,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3808,11 +3805,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14222,6 +14222,192 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627784</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>846426</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154998</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDD935B-2BC9-439C-A09E-BE7E57B1637C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="6260523"/>
+          <a:ext cx="5310187" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>しっかりと仕様が理解できていますね。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>業務でもプロジェクトの途中から参画することもあり、システムの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仕様を素早く把握できるのは強みになります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>引き続き頑張りましょう。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64817</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736937</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D547C8E8-EDF2-478C-AC68-5845BABA812B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6004953" y="6380987"/>
+          <a:ext cx="672120" cy="672120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20722,12 +20908,12 @@
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -20740,313 +20926,303 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G2:I2"/>
@@ -21054,6 +21230,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21070,12 +21256,12 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -21088,253 +21274,253 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="57"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="11" t="s">
         <v>12</v>
       </c>
@@ -21346,14 +21532,14 @@
         <v>48</v>
       </c>
       <c r="E31" s="58"/>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -21365,14 +21551,14 @@
         <v>48</v>
       </c>
       <c r="E32" s="58"/>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="61"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -21391,43 +21577,43 @@
       <c r="H33" s="58"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A34" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A37" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -21440,7 +21626,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -21449,13 +21635,13 @@
       <c r="D39" s="12"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="57" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A40" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="58" t="s">
         <v>60</v>
       </c>
@@ -21464,13 +21650,13 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A41" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="58" t="s">
         <v>62</v>
       </c>
@@ -21479,13 +21665,13 @@
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A42" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="58" t="s">
         <v>64</v>
       </c>
@@ -21494,13 +21680,13 @@
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A43" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="58" t="s">
         <v>66</v>
       </c>
@@ -21509,13 +21695,13 @@
       <c r="H43" s="58"/>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="57" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A44" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="58" t="s">
         <v>68</v>
       </c>
@@ -21524,13 +21710,13 @@
       <c r="H44" s="58"/>
       <c r="I44" s="58"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="57" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A45" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="58" t="s">
         <v>70</v>
       </c>
@@ -21539,13 +21725,13 @@
       <c r="H45" s="58"/>
       <c r="I45" s="58"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="57" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="58" t="s">
         <v>72</v>
       </c>
@@ -21554,13 +21740,13 @@
       <c r="H46" s="58"/>
       <c r="I46" s="58"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A47" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="58" t="s">
         <v>74</v>
       </c>
@@ -21569,11 +21755,46 @@
       <c r="H47" s="58"/>
       <c r="I47" s="58"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -21586,41 +21807,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21637,12 +21823,12 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -21655,423 +21841,423 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-    </row>
-    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="50"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-    </row>
-    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-    </row>
-    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+    </row>
+    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-    </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="50"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="3" t="s">
         <v>46</v>
       </c>
@@ -22083,14 +22269,14 @@
       <c r="H53" s="66"/>
       <c r="I53" s="67"/>
     </row>
-    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="3" t="s">
         <v>46</v>
       </c>
@@ -22102,14 +22288,14 @@
       <c r="H54" s="66"/>
       <c r="I54" s="67"/>
     </row>
-    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="3" t="s">
         <v>46</v>
       </c>
@@ -22121,14 +22307,14 @@
       <c r="H55" s="66"/>
       <c r="I55" s="67"/>
     </row>
-    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="50"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="3" t="s">
         <v>46</v>
       </c>
@@ -22140,14 +22326,14 @@
       <c r="H56" s="66"/>
       <c r="I56" s="67"/>
     </row>
-    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="3" t="s">
         <v>46</v>
       </c>
@@ -22159,14 +22345,14 @@
       <c r="H57" s="66"/>
       <c r="I57" s="67"/>
     </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="3" t="s">
         <v>46</v>
       </c>
@@ -22178,14 +22364,14 @@
       <c r="H58" s="66"/>
       <c r="I58" s="67"/>
     </row>
-    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="3" t="s">
         <v>46</v>
       </c>
@@ -22197,14 +22383,14 @@
       <c r="H59" s="66"/>
       <c r="I59" s="67"/>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="3" t="s">
         <v>46</v>
       </c>
@@ -22216,14 +22402,14 @@
       <c r="H60" s="66"/>
       <c r="I60" s="67"/>
     </row>
-    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="3" t="s">
         <v>1</v>
       </c>
@@ -22235,26 +22421,26 @@
       <c r="H61" s="66"/>
       <c r="I61" s="67"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="51" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A62" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="52"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A63" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
@@ -22263,7 +22449,7 @@
       <c r="D64" s="15"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A65" s="16" t="s">
         <v>119</v>
       </c>
@@ -22276,14 +22462,14 @@
       <c r="H65"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A66" s="14"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A67" s="15" t="s">
         <v>120</v>
       </c>
@@ -22296,7 +22482,7 @@
       <c r="H67"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A68" s="15" t="s">
         <v>121</v>
       </c>
@@ -22309,7 +22495,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A69" s="15" t="s">
         <v>122</v>
       </c>
@@ -22322,7 +22508,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A70" s="15" t="s">
         <v>123</v>
       </c>
@@ -22335,7 +22521,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -22346,7 +22532,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A72" s="15" t="s">
         <v>106</v>
       </c>
@@ -22359,7 +22545,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A73" s="15" t="s">
         <v>124</v>
       </c>
@@ -22372,7 +22558,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -22383,7 +22569,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A75" s="15" t="s">
         <v>125</v>
       </c>
@@ -22396,7 +22582,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A76" s="15" t="s">
         <v>126</v>
       </c>
@@ -22409,7 +22595,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -22420,7 +22606,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A78" s="15" t="s">
         <v>127</v>
       </c>
@@ -22433,7 +22619,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A79" s="15" t="s">
         <v>128</v>
       </c>
@@ -22446,7 +22632,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -22457,21 +22643,36 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="C6:E6"/>
@@ -22485,31 +22686,16 @@
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22526,12 +22712,12 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -22544,278 +22730,278 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -22831,14 +23017,14 @@
       <c r="E41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -22854,14 +23040,14 @@
       <c r="E42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-    </row>
-    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -22877,14 +23063,14 @@
       <c r="E43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-    </row>
-    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="74"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -22900,14 +23086,14 @@
       <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="74"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -22923,14 +23109,14 @@
       <c r="E45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="81"/>
-    </row>
-    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="71"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
@@ -22946,14 +23132,14 @@
       <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="81"/>
-    </row>
-    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="71"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
@@ -22969,14 +23155,14 @@
       <c r="E47" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="81"/>
-    </row>
-    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -22992,14 +23178,14 @@
       <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="81"/>
-    </row>
-    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="71"/>
+    </row>
+    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -23015,14 +23201,14 @@
       <c r="E49" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -23038,14 +23224,14 @@
       <c r="E50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="74"/>
+    </row>
+    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
@@ -23061,14 +23247,14 @@
       <c r="E51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -23084,14 +23270,14 @@
       <c r="E52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -23107,470 +23293,496 @@
       <c r="E53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="51" t="s">
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A54" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="52"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="78"/>
+      <c r="D55" s="76"/>
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="68" t="s">
+      <c r="F55" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="50"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="68" t="s">
+      <c r="F56" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="50"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="50"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="F58" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A59" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A60" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="50"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="68" t="s">
+      <c r="F60" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+    </row>
+    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="50"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F61" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+    </row>
+    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="50"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F62" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="51" t="s">
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A63" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="52"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="45"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69" t="s">
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="70" t="s">
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A65" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69" t="s">
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="71"/>
-      <c r="B66" s="69" t="s">
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A66" s="79"/>
+      <c r="B66" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69" t="s">
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="69"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="70" t="s">
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A67" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69" t="s">
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="71"/>
-      <c r="B68" s="69" t="s">
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A68" s="79"/>
+      <c r="B68" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69" t="s">
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-    </row>
-    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="71"/>
-      <c r="B69" s="72" t="s">
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+    </row>
+    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A69" s="79"/>
+      <c r="B69" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="72" t="s">
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-    </row>
-    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="73"/>
-      <c r="B70" s="69" t="s">
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+    </row>
+    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A70" s="80"/>
+      <c r="B70" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69" t="s">
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="70" t="s">
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A71" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="69" t="s">
+      <c r="B71" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69" t="s">
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="71"/>
-      <c r="B72" s="69" t="s">
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A72" s="79"/>
+      <c r="B72" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69" t="s">
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
-    </row>
-    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="71"/>
-      <c r="B73" s="72" t="s">
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+    </row>
+    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A73" s="79"/>
+      <c r="B73" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="72" t="s">
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="70" t="s">
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A74" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="69" t="s">
+      <c r="B74" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69" t="s">
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="71"/>
-      <c r="B75" s="69" t="s">
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A75" s="79"/>
+      <c r="B75" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69" t="s">
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="70" t="s">
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A76" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69" t="s">
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="69"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="71"/>
-      <c r="B77" s="69" t="s">
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A77" s="79"/>
+      <c r="B77" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69" t="s">
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A78" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="68" t="s">
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:I59"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="F46:I46"/>
@@ -23584,54 +23796,28 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23644,16 +23830,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C3BD8C-2E32-48BE-BEFD-56C188B50064}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D39" sqref="D39:I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -23666,258 +23852,258 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -23927,16 +24113,16 @@
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -23946,16 +24132,16 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="75" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="82"/>
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
       <c r="H37" s="82"/>
-      <c r="I37" s="78"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -23972,9 +24158,9 @@
       <c r="F38" s="82"/>
       <c r="G38" s="82"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="78"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -23993,7 +24179,7 @@
       <c r="H39" s="84"/>
       <c r="I39" s="85"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -24012,7 +24198,7 @@
       <c r="H40" s="84"/>
       <c r="I40" s="85"/>
     </row>
-    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -24022,60 +24208,72 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="75" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="82"/>
       <c r="F41" s="82"/>
       <c r="G41" s="82"/>
       <c r="H41" s="82"/>
-      <c r="I41" s="78"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="51" t="s">
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A42" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D41:I41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -24088,18 +24286,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24116,12 +24302,12 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -24134,270 +24320,270 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="28"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
@@ -24407,16 +24593,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
@@ -24426,16 +24612,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="75" t="s">
         <v>225</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="103"/>
-    </row>
-    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="88"/>
+    </row>
+    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
@@ -24445,16 +24631,16 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="104"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="89"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="30" t="s">
         <v>6</v>
       </c>
@@ -24464,14 +24650,14 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="93"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="90"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="92"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="30" t="s">
         <v>3</v>
       </c>
@@ -24488,9 +24674,9 @@
       <c r="F43" s="66"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
-      <c r="I43" s="94"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="86"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="30" t="s">
         <v>86</v>
       </c>
@@ -24500,14 +24686,14 @@
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="93"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="92"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
@@ -24524,133 +24710,137 @@
       <c r="F45" s="66"/>
       <c r="G45" s="66"/>
       <c r="H45" s="66"/>
-      <c r="I45" s="94"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="86" t="s">
+      <c r="I45" s="86"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
       <c r="I46" s="87"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="95" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A47" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="97"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="98" t="s">
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="96"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="100" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="99"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="101" t="s">
+      <c r="F48" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="88" t="s">
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="101"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="49" t="s">
+      <c r="B49" s="43"/>
+      <c r="C49" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="90"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="88" t="s">
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="104"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A50" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="49" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="90"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="86" t="s">
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="104"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A51" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="87"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -24663,20 +24853,16 @@
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
     <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24693,12 +24879,12 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -24711,266 +24897,266 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="33"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -24980,16 +25166,16 @@
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -24999,16 +25185,16 @@
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="75" t="s">
         <v>229</v>
       </c>
       <c r="E39" s="82"/>
       <c r="F39" s="82"/>
       <c r="G39" s="82"/>
       <c r="H39" s="82"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="76"/>
+    </row>
+    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -25027,7 +25213,7 @@
       <c r="H40" s="66"/>
       <c r="I40" s="67"/>
     </row>
-    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -25046,7 +25232,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -25063,7 +25249,7 @@
       <c r="H42" s="84"/>
       <c r="I42" s="85"/>
     </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -25073,16 +25259,16 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="75" t="s">
         <v>233</v>
       </c>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
       <c r="G43" s="82"/>
       <c r="H43" s="82"/>
-      <c r="I43" s="78"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="76"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -25092,16 +25278,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="75" t="s">
         <v>235</v>
       </c>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -25120,20 +25306,20 @@
       <c r="H45" s="66"/>
       <c r="I45" s="67"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="51" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="34" t="s">
         <v>236</v>
       </c>
@@ -25146,71 +25332,71 @@
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="100" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="100" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="99"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="100" t="s">
+      <c r="F48" s="99" t="s">
         <v>157</v>
       </c>
       <c r="G48" s="105"/>
       <c r="H48" s="105"/>
-      <c r="I48" s="99"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="77" t="s">
+      <c r="I48" s="98"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="77" t="s">
+      <c r="B49" s="76"/>
+      <c r="C49" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="37"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="77" t="s">
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A50" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="77" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="78"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="37"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="77" t="s">
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A51" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="77" t="s">
+      <c r="B51" s="76"/>
+      <c r="C51" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="78"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="37"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A52" s="34" t="s">
         <v>239</v>
       </c>
@@ -25223,8 +25409,8 @@
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="100" t="s">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A53" s="99" t="s">
         <v>240</v>
       </c>
       <c r="B53" s="105"/>
@@ -25234,9 +25420,9 @@
       <c r="F53" s="105"/>
       <c r="G53" s="105"/>
       <c r="H53" s="105"/>
-      <c r="I53" s="99"/>
-    </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I53" s="98"/>
+    </row>
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="65" t="s">
         <v>241</v>
       </c>
@@ -25247,78 +25433,87 @@
       <c r="F54" s="82"/>
       <c r="G54" s="82"/>
       <c r="H54" s="82"/>
-      <c r="I54" s="78"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="51" t="s">
+      <c r="I54" s="76"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A55" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="52"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="45"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A59" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A62" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A63" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A66" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A67" s="1" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -25331,25 +25526,16 @@
     <mergeCell ref="D39:I39"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25366,12 +25552,12 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>41</v>
       </c>
@@ -25384,270 +25570,270 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="49"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="54">
         <v>43599</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="49"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="49"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="49"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="49"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -25657,16 +25843,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -25676,16 +25862,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="75" t="s">
         <v>252</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="78"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -25704,7 +25890,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -25723,7 +25909,7 @@
       <c r="H42" s="66"/>
       <c r="I42" s="67"/>
     </row>
-    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -25742,7 +25928,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="67"/>
     </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -25752,16 +25938,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="75" t="s">
         <v>254</v>
       </c>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="19" t="s">
         <v>90</v>
       </c>
@@ -25771,131 +25957,125 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="75" t="s">
         <v>255</v>
       </c>
       <c r="E45" s="82"/>
       <c r="F45" s="82"/>
       <c r="G45" s="82"/>
       <c r="H45" s="82"/>
-      <c r="I45" s="78"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="51" t="s">
+      <c r="I45" s="76"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="52"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="68" t="s">
+      <c r="F48" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="51" t="s">
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="52"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="45"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="106"/>
       <c r="D50" s="106"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="68" t="s">
+      <c r="E50" s="43"/>
+      <c r="F50" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="42" t="s">
         <v>201</v>
       </c>
       <c r="C51" s="106"/>
       <c r="D51" s="106"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="68" t="s">
+      <c r="E51" s="43"/>
+      <c r="F51" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
@@ -25912,12 +26092,18 @@
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/画面設計書_部活動管理システムA04.xlsx
+++ b/Documents/画面設計書_部活動管理システムA04.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookubo\Documents\jc21ps_2019\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FD8F8C-88B8-4683-B7E1-16EBCA6635AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3CFA4935-B797-438A-93BF-2490F7929515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="5295" firstSheet="6" activeTab="7" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="A00.ヘッダー" sheetId="2" r:id="rId1"/>
@@ -31,7 +26,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'A06.部員登録承認'!$A$1:$I$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'A07.部活情報登録'!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A13:H23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3613,39 +3609,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3661,6 +3624,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3670,17 +3642,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3688,11 +3684,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3703,8 +3699,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3730,21 +3741,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3757,17 +3753,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3778,8 +3777,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3805,14 +3804,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -20904,320 +20900,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6972DAEB-A963-4EA5-89BA-1EDF24BE1277}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -21230,16 +21231,11 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21252,275 +21248,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AED9E9F-CD31-4405-9CB7-3FDC3BF39E78}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>12</v>
       </c>
@@ -21532,14 +21528,14 @@
         <v>48</v>
       </c>
       <c r="E31" s="58"/>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -21551,14 +21547,14 @@
         <v>48</v>
       </c>
       <c r="E32" s="58"/>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="61"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -21577,43 +21573,43 @@
       <c r="H33" s="58"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A37" s="63" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -21626,7 +21622,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -21635,13 +21631,13 @@
       <c r="D39" s="12"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="58" t="s">
         <v>60</v>
       </c>
@@ -21650,13 +21646,13 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A41" s="60" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="58" t="s">
         <v>62</v>
       </c>
@@ -21665,13 +21661,13 @@
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A42" s="60" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="58" t="s">
         <v>64</v>
       </c>
@@ -21680,13 +21676,13 @@
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="58" t="s">
         <v>66</v>
       </c>
@@ -21695,13 +21691,13 @@
       <c r="H43" s="58"/>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A44" s="60" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="58" t="s">
         <v>68</v>
       </c>
@@ -21710,13 +21706,13 @@
       <c r="H44" s="58"/>
       <c r="I44" s="58"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A45" s="60" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="58" t="s">
         <v>70</v>
       </c>
@@ -21725,13 +21721,13 @@
       <c r="H45" s="58"/>
       <c r="I45" s="58"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="58" t="s">
         <v>72</v>
       </c>
@@ -21740,13 +21736,13 @@
       <c r="H46" s="58"/>
       <c r="I46" s="58"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A47" s="60" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="58" t="s">
         <v>74</v>
       </c>
@@ -21755,46 +21751,11 @@
       <c r="H47" s="58"/>
       <c r="I47" s="58"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -21807,6 +21768,41 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21819,445 +21815,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0EC94A-475E-4C78-AE06-E65E36305AD1}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A73" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="45"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="43"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-    </row>
-    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="43"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="43"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-    </row>
-    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="43"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-    </row>
-    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+    </row>
+    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="43"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-    </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="43"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="3" t="s">
         <v>46</v>
       </c>
@@ -22269,14 +22265,14 @@
       <c r="H53" s="66"/>
       <c r="I53" s="67"/>
     </row>
-    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="43"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="3" t="s">
         <v>46</v>
       </c>
@@ -22288,14 +22284,14 @@
       <c r="H54" s="66"/>
       <c r="I54" s="67"/>
     </row>
-    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="43"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="3" t="s">
         <v>46</v>
       </c>
@@ -22307,14 +22303,14 @@
       <c r="H55" s="66"/>
       <c r="I55" s="67"/>
     </row>
-    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="43"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="3" t="s">
         <v>46</v>
       </c>
@@ -22326,14 +22322,14 @@
       <c r="H56" s="66"/>
       <c r="I56" s="67"/>
     </row>
-    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="43"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="3" t="s">
         <v>46</v>
       </c>
@@ -22345,14 +22341,14 @@
       <c r="H57" s="66"/>
       <c r="I57" s="67"/>
     </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="3" t="s">
         <v>46</v>
       </c>
@@ -22364,14 +22360,14 @@
       <c r="H58" s="66"/>
       <c r="I58" s="67"/>
     </row>
-    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="3" t="s">
         <v>46</v>
       </c>
@@ -22383,14 +22379,14 @@
       <c r="H59" s="66"/>
       <c r="I59" s="67"/>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="43"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="3" t="s">
         <v>46</v>
       </c>
@@ -22402,14 +22398,14 @@
       <c r="H60" s="66"/>
       <c r="I60" s="67"/>
     </row>
-    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="43"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="3" t="s">
         <v>1</v>
       </c>
@@ -22421,26 +22417,26 @@
       <c r="H61" s="66"/>
       <c r="I61" s="67"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A62" s="44" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="45"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="52"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
@@ -22449,7 +22445,7 @@
       <c r="D64" s="15"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="16" t="s">
         <v>119</v>
       </c>
@@ -22462,14 +22458,14 @@
       <c r="H65"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="15" t="s">
         <v>120</v>
       </c>
@@ -22482,7 +22478,7 @@
       <c r="H67"/>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
         <v>121</v>
       </c>
@@ -22495,7 +22491,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
         <v>122</v>
       </c>
@@ -22508,7 +22504,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>123</v>
       </c>
@@ -22521,7 +22517,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -22532,7 +22528,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="15" t="s">
         <v>106</v>
       </c>
@@ -22545,7 +22541,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
         <v>124</v>
       </c>
@@ -22558,7 +22554,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -22569,7 +22565,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
         <v>125</v>
       </c>
@@ -22582,7 +22578,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="15" t="s">
         <v>126</v>
       </c>
@@ -22595,7 +22591,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -22606,7 +22602,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="15" t="s">
         <v>127</v>
       </c>
@@ -22619,7 +22615,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
         <v>128</v>
       </c>
@@ -22632,7 +22628,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -22643,36 +22639,21 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="C6:E6"/>
@@ -22686,16 +22667,31 @@
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:I61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22708,300 +22704,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA86AED-8B45-4645-A8AB-39AA91BED920}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -23017,14 +23013,14 @@
       <c r="E41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="52"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -23040,14 +23036,14 @@
       <c r="E42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="72" t="s">
+      <c r="F42" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
-    </row>
-    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -23063,14 +23059,14 @@
       <c r="E43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
-    </row>
-    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="79"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -23086,14 +23082,14 @@
       <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="69" t="s">
+      <c r="F44" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="74"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -23109,14 +23105,14 @@
       <c r="E45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="71"/>
-    </row>
-    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="76"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
@@ -23132,14 +23128,14 @@
       <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
@@ -23155,14 +23151,14 @@
       <c r="E47" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="71"/>
-    </row>
-    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -23178,14 +23174,14 @@
       <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="71"/>
-    </row>
-    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -23201,14 +23197,14 @@
       <c r="E49" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="74"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -23224,14 +23220,14 @@
       <c r="E50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="74"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="79"/>
+    </row>
+    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
@@ -23247,14 +23243,14 @@
       <c r="E51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="72" t="s">
+      <c r="F51" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="79"/>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -23270,14 +23266,14 @@
       <c r="E52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="79"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -23293,496 +23289,470 @@
       <c r="E53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="72" t="s">
+      <c r="F53" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="74"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A54" s="44" t="s">
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="79"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="45"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="52"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="76"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="43"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="43"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="64" t="s">
+      <c r="F57" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="43"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="43"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="64" t="s">
+      <c r="F59" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="43"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-    </row>
-    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="43"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-    </row>
-    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="43"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="F62" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A63" s="44" t="s">
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="45"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="52"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77" t="s">
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A65" s="78" t="s">
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A66" s="79"/>
-      <c r="B66" s="77" t="s">
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="71"/>
+      <c r="B66" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77" t="s">
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A67" s="78" t="s">
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77" t="s">
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A68" s="79"/>
-      <c r="B68" s="77" t="s">
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="71"/>
+      <c r="B68" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77" t="s">
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-    </row>
-    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="79"/>
-      <c r="B69" s="81" t="s">
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+    </row>
+    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="71"/>
+      <c r="B69" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="81" t="s">
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-    </row>
-    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A70" s="80"/>
-      <c r="B70" s="77" t="s">
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+    </row>
+    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="73"/>
+      <c r="B70" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77" t="s">
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A71" s="78" t="s">
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77" t="s">
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A72" s="79"/>
-      <c r="B72" s="77" t="s">
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="71"/>
+      <c r="B72" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77" t="s">
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-    </row>
-    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="79"/>
-      <c r="B73" s="81" t="s">
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+    </row>
+    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="71"/>
+      <c r="B73" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="81" t="s">
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A74" s="78" t="s">
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77" t="s">
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A75" s="79"/>
-      <c r="B75" s="77" t="s">
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="71"/>
+      <c r="B75" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77" t="s">
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A76" s="78" t="s">
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77" t="s">
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A77" s="79"/>
-      <c r="B77" s="77" t="s">
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="71"/>
+      <c r="B77" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77" t="s">
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="64" t="s">
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="F46:I46"/>
@@ -23796,28 +23766,54 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23830,280 +23826,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C3BD8C-2E32-48BE-BEFD-56C188B50064}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:I39"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -24113,16 +24109,16 @@
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -24132,16 +24128,16 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="80" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="82"/>
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
       <c r="H37" s="82"/>
-      <c r="I37" s="76"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I37" s="81"/>
+    </row>
+    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -24158,9 +24154,9 @@
       <c r="F38" s="82"/>
       <c r="G38" s="82"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="76"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -24179,7 +24175,7 @@
       <c r="H39" s="84"/>
       <c r="I39" s="85"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -24198,7 +24194,7 @@
       <c r="H40" s="84"/>
       <c r="I40" s="85"/>
     </row>
-    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -24208,72 +24204,60 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="80" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="82"/>
       <c r="F41" s="82"/>
       <c r="G41" s="82"/>
       <c r="H41" s="82"/>
-      <c r="I41" s="76"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A42" s="44" t="s">
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="45"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="52"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D41:I41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -24286,6 +24270,18 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24298,292 +24294,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E404173-E494-49A5-91D0-06DCC8BD706D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A70" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="28"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
@@ -24593,16 +24589,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
@@ -24612,16 +24608,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="80" t="s">
         <v>225</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="88"/>
-    </row>
-    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I40" s="103"/>
+    </row>
+    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
@@ -24631,16 +24627,16 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="89"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="104"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="30" t="s">
         <v>6</v>
       </c>
@@ -24650,14 +24646,14 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="92"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="93"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="30" t="s">
         <v>3</v>
       </c>
@@ -24674,9 +24670,9 @@
       <c r="F43" s="66"/>
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
-      <c r="I43" s="86"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I43" s="94"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>86</v>
       </c>
@@ -24686,14 +24682,14 @@
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="92"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
@@ -24710,137 +24706,133 @@
       <c r="F45" s="66"/>
       <c r="G45" s="66"/>
       <c r="H45" s="66"/>
-      <c r="I45" s="86"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="93" t="s">
+      <c r="I45" s="94"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
       <c r="I46" s="87"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A47" s="94" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="96"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A48" s="97" t="s">
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="97"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="98"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="100" t="s">
+      <c r="F48" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="101"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="102" t="s">
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="42" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="104"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A50" s="102" t="s">
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="90"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="42" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="104"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A51" s="93" t="s">
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="90"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
       <c r="I51" s="87"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -24853,16 +24845,20 @@
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
     <mergeCell ref="D42:I42"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24879,284 +24875,284 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="33"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -25166,16 +25162,16 @@
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="52"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -25185,16 +25181,16 @@
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="80" t="s">
         <v>229</v>
       </c>
       <c r="E39" s="82"/>
       <c r="F39" s="82"/>
       <c r="G39" s="82"/>
       <c r="H39" s="82"/>
-      <c r="I39" s="76"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -25213,7 +25209,7 @@
       <c r="H40" s="66"/>
       <c r="I40" s="67"/>
     </row>
-    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -25232,7 +25228,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -25249,7 +25245,7 @@
       <c r="H42" s="84"/>
       <c r="I42" s="85"/>
     </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -25259,16 +25255,16 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="80" t="s">
         <v>233</v>
       </c>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
       <c r="G43" s="82"/>
       <c r="H43" s="82"/>
-      <c r="I43" s="76"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -25278,16 +25274,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="80" t="s">
         <v>235</v>
       </c>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="76"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -25306,20 +25302,20 @@
       <c r="H45" s="66"/>
       <c r="I45" s="67"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="44" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="34" t="s">
         <v>236</v>
       </c>
@@ -25332,71 +25328,71 @@
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A48" s="99" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="98"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="99" t="s">
+      <c r="F48" s="100" t="s">
         <v>157</v>
       </c>
       <c r="G48" s="105"/>
       <c r="H48" s="105"/>
-      <c r="I48" s="98"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="75" t="s">
+      <c r="I48" s="99"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="75" t="s">
+      <c r="B49" s="81"/>
+      <c r="C49" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="76"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="37"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A50" s="75" t="s">
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="75" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="76"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="37"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A51" s="75" t="s">
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="75" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="76"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="37"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="34" t="s">
         <v>239</v>
       </c>
@@ -25409,8 +25405,8 @@
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="99" t="s">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="100" t="s">
         <v>240</v>
       </c>
       <c r="B53" s="105"/>
@@ -25420,9 +25416,9 @@
       <c r="F53" s="105"/>
       <c r="G53" s="105"/>
       <c r="H53" s="105"/>
-      <c r="I53" s="98"/>
-    </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I53" s="99"/>
+    </row>
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="65" t="s">
         <v>241</v>
       </c>
@@ -25433,68 +25429,97 @@
       <c r="F54" s="82"/>
       <c r="G54" s="82"/>
       <c r="H54" s="82"/>
-      <c r="I54" s="76"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A55" s="44" t="s">
+      <c r="I54" s="81"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="45"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="52"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -25507,35 +25532,6 @@
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="A53:I53"/>
     <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25548,292 +25544,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAACA-D7A1-43F1-853F-D7EC8172BABB}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="46">
         <v>43599</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="49"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="49"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="49" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="49"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="38"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="38"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="49" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -25843,16 +25839,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="52"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -25862,16 +25858,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="80" t="s">
         <v>252</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
-      <c r="I40" s="76"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -25890,7 +25886,7 @@
       <c r="H41" s="66"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -25909,7 +25905,7 @@
       <c r="H42" s="66"/>
       <c r="I42" s="67"/>
     </row>
-    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -25928,7 +25924,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="67"/>
     </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -25938,16 +25934,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="80" t="s">
         <v>254</v>
       </c>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
       <c r="H44" s="82"/>
-      <c r="I44" s="76"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
         <v>90</v>
       </c>
@@ -25957,125 +25953,131 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="80" t="s">
         <v>255</v>
       </c>
       <c r="E45" s="82"/>
       <c r="F45" s="82"/>
       <c r="G45" s="82"/>
       <c r="H45" s="82"/>
-      <c r="I45" s="76"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="44" t="s">
+      <c r="I45" s="81"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="76"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="43"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="44" t="s">
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="45"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="52"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="106"/>
       <c r="D50" s="106"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="64" t="s">
+      <c r="E50" s="50"/>
+      <c r="F50" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="49" t="s">
         <v>201</v>
       </c>
       <c r="C51" s="106"/>
       <c r="D51" s="106"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="64" t="s">
+      <c r="E51" s="50"/>
+      <c r="F51" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
@@ -26092,18 +26094,12 @@
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/画面設計書_部活動管理システムA04.xlsx
+++ b/Documents/画面設計書_部活動管理システムA04.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookubo\Documents\jc21ps_2019\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDAE545-3EF3-4789-BA73-080FC46A2D21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{596B186E-5F3C-4BE9-A1B0-E40E07777301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="8985" firstSheet="1" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="A00.ヘッダー" sheetId="2" r:id="rId1"/>
@@ -31,7 +26,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'A06.部員登録承認'!$A$1:$I$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'A07.部活情報登録'!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A43:K56"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3161,43 +3157,6 @@
   </si>
   <si>
     <r>
-      <t>トップ画面の【　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/JC21PS/TopController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　】名リンクより遷移する。</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">活動予定テーブルの【 活動ID(activity_id) 】に紐づく参加者テーブルの参加ユーザーの【 </t>
     </r>
     <r>
@@ -3209,7 +3168,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>参加ユーザー(user_id)</t>
+      <t>参加ユーザー(user_name)</t>
     </r>
     <r>
       <rPr>
@@ -3224,6 +3183,22 @@
     </r>
     <rPh sb="51" eb="53">
       <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップ画面の【　活動　】名リンクより遷移する。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3706,39 +3681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3754,6 +3696,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3763,17 +3714,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3781,11 +3756,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3796,8 +3771,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3823,21 +3813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3850,17 +3825,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3871,8 +3849,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3898,14 +3876,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -26024,316 +25999,321 @@
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="45"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -26346,16 +26326,11 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26368,275 +26343,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AED9E9F-CD31-4405-9CB7-3FDC3BF39E78}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="59"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>12</v>
       </c>
@@ -26648,14 +26623,14 @@
         <v>48</v>
       </c>
       <c r="E31" s="60"/>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -26667,14 +26642,14 @@
         <v>48</v>
       </c>
       <c r="E32" s="60"/>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -26693,43 +26668,43 @@
       <c r="H33" s="60"/>
       <c r="I33" s="64"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A34" s="40" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A37" s="65" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -26742,7 +26717,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -26751,13 +26726,13 @@
       <c r="D39" s="12"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="60" t="s">
         <v>60</v>
       </c>
@@ -26766,13 +26741,13 @@
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="60" t="s">
         <v>62</v>
       </c>
@@ -26781,13 +26756,13 @@
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="60" t="s">
         <v>64</v>
       </c>
@@ -26796,13 +26771,13 @@
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A43" s="62" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="60" t="s">
         <v>66</v>
       </c>
@@ -26811,13 +26786,13 @@
       <c r="H43" s="60"/>
       <c r="I43" s="60"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="60" t="s">
         <v>68</v>
       </c>
@@ -26826,13 +26801,13 @@
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="60" t="s">
         <v>70</v>
       </c>
@@ -26841,13 +26816,13 @@
       <c r="H45" s="60"/>
       <c r="I45" s="60"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="60" t="s">
         <v>72</v>
       </c>
@@ -26856,13 +26831,13 @@
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A47" s="62" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="60" t="s">
         <v>74</v>
       </c>
@@ -26871,46 +26846,11 @@
       <c r="H47" s="60"/>
       <c r="I47" s="60"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -26923,6 +26863,41 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26935,445 +26910,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0EC94A-475E-4C78-AE06-E65E36305AD1}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="47"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="45"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-    </row>
-    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="45"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="45"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-    </row>
-    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+    </row>
+    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-    </row>
-    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+    </row>
+    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="45"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-    </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="45"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="39" t="s">
         <v>46</v>
       </c>
@@ -27385,14 +27360,14 @@
       <c r="H53" s="68"/>
       <c r="I53" s="69"/>
     </row>
-    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="45"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="39" t="s">
         <v>263</v>
       </c>
@@ -27404,14 +27379,14 @@
       <c r="H54" s="68"/>
       <c r="I54" s="69"/>
     </row>
-    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="45"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="39" t="s">
         <v>46</v>
       </c>
@@ -27423,14 +27398,14 @@
       <c r="H55" s="68"/>
       <c r="I55" s="69"/>
     </row>
-    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="45"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="39" t="s">
         <v>46</v>
       </c>
@@ -27442,14 +27417,14 @@
       <c r="H56" s="68"/>
       <c r="I56" s="69"/>
     </row>
-    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="45"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="39" t="s">
         <v>46</v>
       </c>
@@ -27461,14 +27436,14 @@
       <c r="H57" s="68"/>
       <c r="I57" s="69"/>
     </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="45"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="39" t="s">
         <v>46</v>
       </c>
@@ -27480,14 +27455,14 @@
       <c r="H58" s="68"/>
       <c r="I58" s="69"/>
     </row>
-    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="45"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="39" t="s">
         <v>46</v>
       </c>
@@ -27499,14 +27474,14 @@
       <c r="H59" s="68"/>
       <c r="I59" s="69"/>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="45"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="39" t="s">
         <v>46</v>
       </c>
@@ -27518,14 +27493,14 @@
       <c r="H60" s="68"/>
       <c r="I60" s="69"/>
     </row>
-    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="45"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="39" t="s">
         <v>46</v>
       </c>
@@ -27537,14 +27512,14 @@
       <c r="H61" s="68"/>
       <c r="I61" s="69"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="45"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="39" t="s">
         <v>1</v>
       </c>
@@ -27556,26 +27531,26 @@
       <c r="H62" s="68"/>
       <c r="I62" s="69"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A63" s="46" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
         <v>118</v>
       </c>
@@ -27584,7 +27559,7 @@
       <c r="D65" s="15"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="16" t="s">
         <v>119</v>
       </c>
@@ -27597,14 +27572,14 @@
       <c r="H66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
         <v>120</v>
       </c>
@@ -27617,7 +27592,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
         <v>121</v>
       </c>
@@ -27630,7 +27605,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>122</v>
       </c>
@@ -27643,7 +27618,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
         <v>123</v>
       </c>
@@ -27656,7 +27631,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -27667,7 +27642,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
         <v>106</v>
       </c>
@@ -27680,7 +27655,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="15" t="s">
         <v>124</v>
       </c>
@@ -27693,7 +27668,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -27704,7 +27679,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="15" t="s">
         <v>125</v>
       </c>
@@ -27717,7 +27692,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="15" t="s">
         <v>126</v>
       </c>
@@ -27730,7 +27705,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -27741,7 +27716,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
         <v>127</v>
       </c>
@@ -27754,7 +27729,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="15" t="s">
         <v>128</v>
       </c>
@@ -27767,7 +27742,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -27778,45 +27753,28 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>267</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="C6:E6"/>
@@ -27830,16 +27788,33 @@
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:I62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27852,300 +27827,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA86AED-8B45-4645-A8AB-39AA91BED920}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -28161,14 +28136,14 @@
       <c r="E41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="47"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -28184,14 +28159,14 @@
       <c r="E42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-    </row>
-    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="81"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -28207,14 +28182,14 @@
       <c r="E43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-    </row>
-    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="81"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -28230,14 +28205,14 @@
       <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="81"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -28253,14 +28228,14 @@
       <c r="E45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
-    </row>
-    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="78"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
@@ -28276,14 +28251,14 @@
       <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
-    </row>
-    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="78"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
@@ -28299,14 +28274,14 @@
       <c r="E47" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="73"/>
-    </row>
-    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="78"/>
+    </row>
+    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -28322,14 +28297,14 @@
       <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
-    </row>
-    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="78"/>
+    </row>
+    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -28345,14 +28320,14 @@
       <c r="E49" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="81"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -28368,14 +28343,14 @@
       <c r="E50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="81"/>
+    </row>
+    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
@@ -28391,14 +28366,14 @@
       <c r="E51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="81"/>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -28414,14 +28389,14 @@
       <c r="E52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="81"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -28437,496 +28412,470 @@
       <c r="E53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A54" s="46" t="s">
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="81"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="47"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="78"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="F55" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="45"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="66" t="s">
+      <c r="F57" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="45"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="66" t="s">
+      <c r="F59" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="45"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="F60" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-    </row>
-    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+    </row>
+    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="45"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-    </row>
-    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+    </row>
+    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="45"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A63" s="46" t="s">
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79" t="s">
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A65" s="80" t="s">
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79" t="s">
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A66" s="81"/>
-      <c r="B66" s="79" t="s">
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="73"/>
+      <c r="B66" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A67" s="80" t="s">
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79" t="s">
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A68" s="81"/>
-      <c r="B68" s="79" t="s">
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="73"/>
+      <c r="B68" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79" t="s">
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-    </row>
-    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="81"/>
-      <c r="B69" s="83" t="s">
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+    </row>
+    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="73"/>
+      <c r="B69" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="83" t="s">
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-    </row>
-    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A70" s="82"/>
-      <c r="B70" s="79" t="s">
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+    </row>
+    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="75"/>
+      <c r="B70" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79" t="s">
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A71" s="80" t="s">
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79" t="s">
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A72" s="81"/>
-      <c r="B72" s="79" t="s">
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="73"/>
+      <c r="B72" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79" t="s">
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-    </row>
-    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="81"/>
-      <c r="B73" s="83" t="s">
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+    </row>
+    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="73"/>
+      <c r="B73" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="83" t="s">
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A74" s="80" t="s">
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79" t="s">
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A75" s="81"/>
-      <c r="B75" s="79" t="s">
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="73"/>
+      <c r="B75" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79" t="s">
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A76" s="80" t="s">
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79" t="s">
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A77" s="81"/>
-      <c r="B77" s="79" t="s">
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="73"/>
+      <c r="B77" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79" t="s">
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="66" t="s">
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="F46:I46"/>
@@ -28940,28 +28889,54 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28974,282 +28949,282 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C3BD8C-2E32-48BE-BEFD-56C188B50064}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="8" width="11.125" style="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -29259,16 +29234,16 @@
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -29278,16 +29253,16 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="82" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
       <c r="G37" s="84"/>
       <c r="H37" s="84"/>
-      <c r="I37" s="78"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I37" s="83"/>
+    </row>
+    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -29304,9 +29279,9 @@
       <c r="F38" s="84"/>
       <c r="G38" s="84"/>
       <c r="H38" s="84"/>
-      <c r="I38" s="78"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I38" s="83"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -29325,7 +29300,7 @@
       <c r="H39" s="86"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -29344,7 +29319,7 @@
       <c r="H40" s="86"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -29354,72 +29329,60 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="82" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
       <c r="G41" s="84"/>
       <c r="H41" s="84"/>
-      <c r="I41" s="78"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A42" s="46" t="s">
+      <c r="I41" s="83"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="47"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D41:I41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -29432,6 +29395,18 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29448,288 +29423,288 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="28"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
@@ -29739,16 +29714,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
       <c r="I39" s="89"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
@@ -29758,16 +29733,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="82" t="s">
         <v>225</v>
       </c>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="G40" s="84"/>
       <c r="H40" s="84"/>
-      <c r="I40" s="90"/>
-    </row>
-    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I40" s="105"/>
+    </row>
+    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
@@ -29777,16 +29752,16 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="91"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="106"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="30" t="s">
         <v>6</v>
       </c>
@@ -29796,14 +29771,14 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="94"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="30" t="s">
         <v>3</v>
       </c>
@@ -29820,9 +29795,9 @@
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
       <c r="H43" s="68"/>
-      <c r="I43" s="88"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I43" s="96"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>86</v>
       </c>
@@ -29832,14 +29807,14 @@
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D44" s="93"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
@@ -29856,137 +29831,133 @@
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
       <c r="H45" s="68"/>
-      <c r="I45" s="88"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="95" t="s">
+      <c r="I45" s="96"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
       <c r="I46" s="89"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A47" s="96" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="98"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A48" s="99" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="99"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="101" t="s">
+      <c r="B48" s="101"/>
+      <c r="C48" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="100"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="103"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="104" t="s">
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="104"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="44" t="s">
+      <c r="B49" s="52"/>
+      <c r="C49" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A50" s="104" t="s">
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="92"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="44" t="s">
+      <c r="B50" s="52"/>
+      <c r="C50" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="106"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A51" s="95" t="s">
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="92"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
       <c r="I51" s="89"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -29999,16 +29970,20 @@
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
     <mergeCell ref="D42:I42"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30025,284 +30000,284 @@
       <selection activeCell="A55" sqref="A55:I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="33"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -30312,16 +30287,16 @@
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -30331,16 +30306,16 @@
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="82" t="s">
         <v>229</v>
       </c>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
       <c r="G39" s="84"/>
       <c r="H39" s="84"/>
-      <c r="I39" s="78"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I39" s="83"/>
+    </row>
+    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -30359,7 +30334,7 @@
       <c r="H40" s="68"/>
       <c r="I40" s="69"/>
     </row>
-    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -30378,7 +30353,7 @@
       <c r="H41" s="68"/>
       <c r="I41" s="69"/>
     </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -30395,7 +30370,7 @@
       <c r="H42" s="86"/>
       <c r="I42" s="87"/>
     </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -30405,16 +30380,16 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="82" t="s">
         <v>233</v>
       </c>
       <c r="E43" s="84"/>
       <c r="F43" s="84"/>
       <c r="G43" s="84"/>
       <c r="H43" s="84"/>
-      <c r="I43" s="78"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I43" s="83"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -30424,16 +30399,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="82" t="s">
         <v>235</v>
       </c>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I44" s="83"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -30452,20 +30427,20 @@
       <c r="H45" s="68"/>
       <c r="I45" s="69"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="46" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="34" t="s">
         <v>236</v>
       </c>
@@ -30478,71 +30453,71 @@
       <c r="H47" s="35"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A48" s="101" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="101" t="s">
+      <c r="B48" s="101"/>
+      <c r="C48" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="100"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="101" t="s">
+      <c r="F48" s="102" t="s">
         <v>157</v>
       </c>
       <c r="G48" s="107"/>
       <c r="H48" s="107"/>
-      <c r="I48" s="100"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="77" t="s">
+      <c r="I48" s="101"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="77" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="37"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A50" s="77" t="s">
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="77" t="s">
+      <c r="B50" s="83"/>
+      <c r="C50" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="78"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="37"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A51" s="77" t="s">
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="77" t="s">
+      <c r="B51" s="83"/>
+      <c r="C51" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="78"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="37"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="34" t="s">
         <v>239</v>
       </c>
@@ -30555,8 +30530,8 @@
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="101" t="s">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="102" t="s">
         <v>240</v>
       </c>
       <c r="B53" s="107"/>
@@ -30566,9 +30541,9 @@
       <c r="F53" s="107"/>
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
-      <c r="I53" s="100"/>
-    </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I53" s="101"/>
+    </row>
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="67" t="s">
         <v>241</v>
       </c>
@@ -30579,68 +30554,97 @@
       <c r="F54" s="84"/>
       <c r="G54" s="84"/>
       <c r="H54" s="84"/>
-      <c r="I54" s="78"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A55" s="46" t="s">
+      <c r="I54" s="83"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="47"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -30653,35 +30657,6 @@
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="A53:I53"/>
     <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30694,292 +30669,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAACA-D7A1-43F1-853F-D7EC8172BABB}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="51"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="40"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="48">
         <v>43599</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="51"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="41">
         <v>1</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="51"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="51" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="51" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="33"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -30989,16 +30964,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="47"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -31008,16 +30983,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="82" t="s">
         <v>252</v>
       </c>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="G40" s="84"/>
       <c r="H40" s="84"/>
-      <c r="I40" s="78"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I40" s="83"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -31036,7 +31011,7 @@
       <c r="H41" s="68"/>
       <c r="I41" s="69"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -31055,7 +31030,7 @@
       <c r="H42" s="68"/>
       <c r="I42" s="69"/>
     </row>
-    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -31074,7 +31049,7 @@
       <c r="H43" s="68"/>
       <c r="I43" s="69"/>
     </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -31084,16 +31059,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="82" t="s">
         <v>254</v>
       </c>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="78"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I44" s="83"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
         <v>90</v>
       </c>
@@ -31103,125 +31078,131 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="82" t="s">
         <v>255</v>
       </c>
       <c r="E45" s="84"/>
       <c r="F45" s="84"/>
       <c r="G45" s="84"/>
       <c r="H45" s="84"/>
-      <c r="I45" s="78"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="46" t="s">
+      <c r="I45" s="83"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="46" t="s">
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="47"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="66" t="s">
+      <c r="E50" s="52"/>
+      <c r="F50" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="51" t="s">
         <v>201</v>
       </c>
       <c r="C51" s="108"/>
       <c r="D51" s="108"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="66" t="s">
+      <c r="E51" s="52"/>
+      <c r="F51" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
@@ -31238,18 +31219,12 @@
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
